--- a/V9 - Beta Production/Price estemate.xlsx
+++ b/V9 - Beta Production/Price estemate.xlsx
@@ -969,7 +969,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
